--- a/output/0/tRNA-His-GTG-1-4.xlsx
+++ b/output/0/tRNA-His-GTG-1-4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>chr1</t>
   </si>
@@ -174,60 +174,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>147775098</t>
-  </si>
-  <si>
-    <t>147775121</t>
-  </si>
-  <si>
-    <t>147775101</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>GGAGGCCCAGGCTGGAGTGG</t>
-  </si>
-  <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>93% (73)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 43%, Moreno-Mateos: 93%</t>
-  </si>
-  <si>
-    <t>147775124</t>
-  </si>
-  <si>
-    <t>147775104</t>
-  </si>
-  <si>
-    <t>CAGGGAGGCCCAGGCTGGAG</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>97% (80)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 21%, Moreno-Mateos: 97%</t>
   </si>
 </sst>
 </file>
@@ -272,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -632,124 +578,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
